--- a/LubanTools/DesignerConfigs/Datas/M_移车让行/CarEntityData.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/M_移车让行/CarEntityData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12156" yWindow="1824" windowWidth="23040" windowHeight="10308"/>
+    <workbookView xWindow="14796" yWindow="1824" windowWidth="23040" windowHeight="10308"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
   <si>
     <t>##var</t>
   </si>
@@ -146,209 +146,225 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>StartPos</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Car1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>001</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>Car1002</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Car1003</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Car1004</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Car1005</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Car1006</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Car1007</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Car1008</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Car1009</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Car1010</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Car1011</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Car1012</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>格子数量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#占用格子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RayDistance</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>射线长度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>vector3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>vector3</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartPos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Car1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>001</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>Car1002</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Car1003</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Car1004</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Car1005</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Car1006</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Car1007</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Car1008</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Car1009</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Car1010</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Car1011</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Car1012</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t/>
-    </r>
+    <t>(list#sep=|),vector2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -387,7 +403,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -397,6 +413,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39994506668294322"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -431,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -451,6 +473,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - 着色 2" xfId="1" builtinId="36"/>
@@ -727,24 +751,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.88671875" customWidth="1"/>
     <col min="2" max="2" width="10.21875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.88671875" customWidth="1"/>
-    <col min="4" max="5" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5546875" customWidth="1"/>
-    <col min="7" max="7" width="25.77734375" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="3" max="4" width="15.88671875" customWidth="1"/>
+    <col min="5" max="6" width="35.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" customWidth="1"/>
+    <col min="8" max="8" width="25.77734375" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,23 +779,29 @@
       <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="H1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="9" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -778,23 +809,27 @@
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
+      <c r="D2" s="4"/>
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -804,234 +839,348 @@
       <c r="C3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>9</v>
+      <c r="D3" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="I3" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="2">
-        <v>1</v>
+      <c r="J3" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="12">
+        <v>1001</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>2</v>
+      </c>
       <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>2</v>
+      <c r="F4" s="7"/>
+      <c r="J4" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="12">
+        <v>1002</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
       <c r="E5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>3</v>
+      <c r="F5" s="7"/>
+      <c r="J5" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="12">
+        <v>1003</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
       <c r="E6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>4</v>
+      <c r="F6" s="7"/>
+      <c r="J6" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="12">
+        <v>1004</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>2</v>
+      </c>
       <c r="E7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>5</v>
+      <c r="F7" s="7"/>
+      <c r="J7" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="12">
+        <v>1005</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2">
-        <v>6</v>
+      <c r="D8" s="7">
+        <v>2</v>
+      </c>
+      <c r="J8" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B9" s="12">
+        <v>1006</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2">
-        <v>7</v>
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="J9" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B10" s="12">
+        <v>1007</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2">
-        <v>8</v>
+      <c r="D10" s="7">
+        <v>2</v>
+      </c>
+      <c r="J10" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="12">
+        <v>1008</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="2">
-        <v>9</v>
+      <c r="D11" s="7">
+        <v>2</v>
+      </c>
+      <c r="J11" s="11">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12">
+        <v>1009</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="2">
-        <v>10</v>
+      <c r="D12" s="7">
+        <v>3</v>
+      </c>
+      <c r="J12" s="11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="12">
+        <v>1010</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="2">
-        <v>11</v>
+      <c r="D13" s="7">
+        <v>3</v>
+      </c>
+      <c r="J13" s="11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="12">
+        <v>1011</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="2">
-        <v>12</v>
+      <c r="D14" s="7">
+        <v>3</v>
+      </c>
+      <c r="J14" s="11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="12">
+        <v>1012</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="7">
+        <v>3</v>
+      </c>
+      <c r="J15" s="11">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
-        <v>1001</v>
+        <v>2001</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="2">
+        <v>2002</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="2">
+        <v>2003</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="7"/>
-      <c r="E16" s="7"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="2">
-        <v>1002</v>
-      </c>
-      <c r="C17" s="10" t="s">
+      <c r="D18" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="2">
+        <v>2004</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="7"/>
-      <c r="E17" s="7"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B18" s="2">
-        <v>1003</v>
-      </c>
-      <c r="C18" s="10" t="s">
+      <c r="D19" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2">
+        <v>2005</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="7"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B19" s="2">
-        <v>1004</v>
-      </c>
-      <c r="C19" s="10" t="s">
+      <c r="D20" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="2">
+        <v>2006</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="7"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B20" s="2">
-        <v>1005</v>
-      </c>
-      <c r="C20" s="10" t="s">
+      <c r="D21" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="2">
+        <v>2007</v>
+      </c>
+      <c r="C22" s="10" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B21" s="2">
-        <v>1006</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="D22" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="2">
+        <v>2008</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B22" s="2">
-        <v>1007</v>
-      </c>
-      <c r="C22" s="10" t="s">
+      <c r="D23" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="2">
+        <v>2009</v>
+      </c>
+      <c r="C24" s="10" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B23" s="2">
-        <v>1008</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="D24" s="10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="2">
+        <v>2010</v>
+      </c>
+      <c r="C25" s="10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="24" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="2">
-        <v>1009</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="D25" s="10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="2">
+        <v>2011</v>
+      </c>
+      <c r="C26" s="10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="2">
-        <v>1010</v>
-      </c>
-      <c r="C25" s="10" t="s">
+      <c r="D26" s="10" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="2">
+        <v>2012</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="26" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="2">
-        <v>1011</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="2">
-        <v>1012</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>44</v>
+      <c r="D27" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="界面类型" prompt="1.独立主界面_x000a_2.独立主界面下子界面_x000a_3.公共子界面" sqref="D12:E15 D24:E27"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="界面类型" prompt="1.独立主界面_x000a_2.独立主界面下子界面_x000a_3.公共子界面" sqref="E12:F15 E24:F27"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/LubanTools/DesignerConfigs/Datas/M_移车让行/CarEntityData.xlsx
+++ b/LubanTools/DesignerConfigs/Datas/M_移车让行/CarEntityData.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubUnityProject\Deer_GameFramework_Wolong.git\trunk\LubanTools\DesignerConfigs\Datas\M_移车让行\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHubFramework\Deer_GameFramework_Wolong.git\trunk\LubanTools\DesignerConfigs\Datas\M_移车让行\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14796" yWindow="1824" windowWidth="23040" windowHeight="10308"/>
+    <workbookView xWindow="37110" yWindow="1830" windowWidth="23040" windowHeight="10305"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="69">
   <si>
     <t>##var</t>
   </si>
@@ -56,23 +56,6 @@
   </si>
   <si>
     <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>oveType</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>i</t>
     </r>
     <r>
@@ -142,14 +125,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>初始位置</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>StartPos</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>Car1</t>
     </r>
@@ -347,14 +322,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>#占用格子</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RayDistance</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>射线长度</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -363,7 +330,239 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UICarMove/CarItem/CarCell2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UICarMove/CarItem/CarCell3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>moveDirection</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体的路径</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,5|1,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,5|3,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,3|1,3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1|4,1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,3|4,4|4,5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5,3|5,4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>(list#sep=|),vector2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellSize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>300,150,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>450,150,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RayOffset</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>0.65</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0,0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,0,0</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CellNum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,1|0,2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,1,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,3,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,1,0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,0|3,0|4,0</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -423,7 +622,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -446,6 +645,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -453,7 +663,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -473,8 +683,12 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="60% - 着色 2" xfId="1" builtinId="36"/>
@@ -754,22 +968,21 @@
   <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.88671875" customWidth="1"/>
-    <col min="2" max="2" width="10.21875" style="2" customWidth="1"/>
-    <col min="3" max="4" width="15.88671875" customWidth="1"/>
-    <col min="5" max="6" width="35.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5546875" customWidth="1"/>
-    <col min="8" max="8" width="25.77734375" customWidth="1"/>
-    <col min="9" max="9" width="23.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="6.875" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="2" customWidth="1"/>
+    <col min="3" max="5" width="15.875" customWidth="1"/>
+    <col min="6" max="7" width="35.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" customWidth="1"/>
+    <col min="9" max="9" width="23.5" customWidth="1"/>
+    <col min="10" max="10" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -780,28 +993,28 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="H1" s="9" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -809,27 +1022,29 @@
         <v>4</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="1" t="s">
-        <v>5</v>
+      <c r="D2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>48</v>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>11</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -840,347 +1055,467 @@
         <v>8</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>29</v>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="I3" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B4" s="12">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="11">
         <v>1001</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="11">
+        <v>1002</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="11">
+        <v>1003</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="11">
+        <v>1004</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="11">
+        <v>1005</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8">
         <v>2</v>
       </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="J4" s="11">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B5" s="12">
-        <v>1002</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="7">
+      <c r="I8" s="14" t="s">
+        <v>63</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="11">
+        <v>1006</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="J5" s="11">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B6" s="12">
-        <v>1003</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="7">
+      <c r="I9" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="11">
+        <v>1007</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7"/>
+      <c r="E10" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="11">
+        <v>1008</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J11" s="12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="11">
+        <v>1009</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" s="2">
         <v>2</v>
       </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="J6" s="11">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B7" s="12">
-        <v>1004</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="7">
-        <v>2</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="J7" s="11">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B8" s="12">
-        <v>1005</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="7">
-        <v>2</v>
-      </c>
-      <c r="J8" s="11">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B9" s="12">
-        <v>1006</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="7">
-        <v>2</v>
-      </c>
-      <c r="J9" s="11">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B10" s="12">
-        <v>1007</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="7">
-        <v>2</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B11" s="12">
-        <v>1008</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="7">
-        <v>2</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0.65</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12">
-        <v>1009</v>
-      </c>
-      <c r="C12" s="7" t="s">
+      <c r="I12" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="11">
+        <v>1010</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="7">
-        <v>3</v>
-      </c>
-      <c r="J12" s="11">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="12">
-        <v>1010</v>
-      </c>
-      <c r="C13" s="7" t="s">
+      <c r="D13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1</v>
+      </c>
+      <c r="I13" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="11">
+        <v>1011</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="7">
-        <v>3</v>
-      </c>
-      <c r="J13" s="11">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="12">
-        <v>1011</v>
-      </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7"/>
+      <c r="E14" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="11">
+        <v>1012</v>
+      </c>
+      <c r="C15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="7">
-        <v>3</v>
-      </c>
-      <c r="J14" s="11">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="12">
-        <v>1012</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D15" s="7">
-        <v>3</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D15" s="7"/>
+      <c r="E15" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" s="12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B16" s="2">
         <v>2001</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="7"/>
+        <v>28</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="7"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" s="2">
         <v>2002</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E17" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="7"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" s="2">
         <v>2003</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="7"/>
+        <v>30</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="7"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" s="2">
         <v>2004</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="16" t="s">
+        <v>57</v>
+      </c>
       <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="7"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" s="2">
         <v>2005</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2">
         <v>2006</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22" s="2">
         <v>2007</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2">
         <v>2008</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="16" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="2">
         <v>2009</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="2">
         <v>2010</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="2">
         <v>2011</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="2">
         <v>2012</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="16" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="界面类型" prompt="1.独立主界面_x000a_2.独立主界面下子界面_x000a_3.公共子界面" sqref="E12:F15 E24:F27"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="界面类型" prompt="1.独立主界面_x000a_2.独立主界面下子界面_x000a_3.公共子界面" sqref="F24:G27 G12:G15"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
